--- a/sample.xlsx
+++ b/sample.xlsx
@@ -198,7 +198,7 @@
 </t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>4,876</t>
@@ -389,7 +389,7 @@
 </t>
   </si>
   <si>
-    <t>393</t>
+    <t>392</t>
   </si>
   <si>
     <t>2,412</t>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t>회사 이름</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>평균 연봉</t>
+  </si>
+  <si>
+    <t>면접 질문</t>
   </si>
   <si>
     <t>㈜신원</t>
@@ -198,10 +201,13 @@
 </t>
   </si>
   <si>
-    <t>16</t>
+    <t>22</t>
   </si>
   <si>
     <t>4,876</t>
+  </si>
+  <si>
+    <t>-종교가 무교로 되어 있는데, 우리 회사는 기독교 회사이다. 문제 없겠나?-(성적증명서를 보며) 회계 수업을 많이 안 들은 것 같은데, 이유가 있나?-중요한 일과 빨리 해야 하는 일이 있을 때 어떻게 처리할 것인가?-개성공단 사업 철수에 대해 어떻게 생각하는가?-군대 어디 갔다 왔는가?-영업 관련 경험이 있는가?-영업 직무란 무엇인가?-왜 패션영업을 선택했는가?-자기소개서에 기재한 자격증에 대해 설명해보시오.-자기소개해보시오.-주량이 어느 정도인가?-출신 부대가 어디인가?-취미, 특기가 무엇인가?-회사가 바빠서 야근을 자주해야 되는데, 여자친구가 계속 만나자고 보챈다. 어떻게 대처할 것인가?-남들과 차별화된 강점이 무엇인가?-전공과 다른 분야인데, 왜 이 직무를 선택했는가?-본인이 지원한 직무에 업무바운더리는 어디까지라고 생각합니까?-마지막으로 하고 싶은 말은 무엇입니까?-성격의 장단점은 무엇입니까?-영업이라는 직무에 대한 생각에 대해 설명해보시오.-영어로 자기소개 해보시오.-좋아하는 과목과 싫어하는 과목은 무엇이고, 그이유를 말해보세요.-본인이 인턴기간 중 수행한 구체적인 직무와 역활은 무엇인가?-기존 지원했던 회사에서 불합격한 이유는 무엇이라고 생각하는가?-본인이 생각하는 패션이란?-업무를 하고 있는데, 다른 직무로 발령을 낸다면 어떻게 하겠는가-우리 회사에 대해서 아는 대로 말해봐라-지원한 직무가 어떤 일을 하는 직무일 것 같나?-회사 생활을 언제까지 하고 싶나요?</t>
   </si>
   <si>
     <t>(주)파우컴퍼니</t>
@@ -241,7 +247,7 @@
     <t>55억 4,495만원</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>㈜와이즈유엑스글로벌</t>
@@ -283,7 +289,7 @@
     <t>350억</t>
   </si>
   <si>
-    <t>143</t>
+    <t>153</t>
   </si>
   <si>
     <t>2,821</t>
@@ -389,7 +395,7 @@
 </t>
   </si>
   <si>
-    <t>392</t>
+    <t>400</t>
   </si>
   <si>
     <t>2,412</t>
@@ -724,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,7 +744,7 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -832,301 +838,307 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="J5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="P5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" t="s">
         <v>50</v>
       </c>
-      <c r="U2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="R5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" t="s">
         <v>52</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="U5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" t="s">
-        <v>100</v>
-      </c>
-      <c r="S5" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" t="s">
-        <v>102</v>
-      </c>
-      <c r="V5" t="s">
-        <v>103</v>
-      </c>
-      <c r="W5" t="s">
-        <v>104</v>
-      </c>
-      <c r="X5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>71</v>
-      </c>
       <c r="AA5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AB5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AC5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AE5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="114">
   <si>
     <t>회사 이름</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>2,412</t>
+  </si>
+  <si>
+    <t>-자신이 하고 싶은 업무분야는?-자신이 비투비인가 비투씨인가요?-새롭게 도전하고 싶은 분야는?-성격이 급한 편인가요?-회계팀 취업을 하고 싶은데, 인사팀 인턴을 한 이유는 무엇인가요?-남들보다 일찍 출근해서 늦게 퇴근하는것이 보통인데 할 수 있겠는가?-강제 로테이션에 대해 어떻게 생각하는가?-희망연봉과 그 이유를 말하여라.-본인의 부족한 점을 보완하기 위해서 구체적으로 무엇을 하였는가?-해커스 말고 지원한 다른 곳이 어디인가?-그동안 했던 업무들을 말해보세요</t>
   </si>
 </sst>
 </file>
@@ -1140,6 +1143,9 @@
       <c r="AE5" t="s">
         <v>112</v>
       </c>
+      <c r="AF5" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
   <si>
     <t>회사 이름</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>면접 질문</t>
+  </si>
+  <si>
+    <t>면접 후기</t>
+  </si>
+  <si>
+    <t>면접 질문(명사)</t>
+  </si>
+  <si>
+    <t>면접 후기(명사)</t>
   </si>
   <si>
     <t>㈜신원</t>
@@ -201,13 +210,22 @@
 </t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>4,876</t>
   </si>
   <si>
-    <t>-종교가 무교로 되어 있는데, 우리 회사는 기독교 회사이다. 문제 없겠나?-(성적증명서를 보며) 회계 수업을 많이 안 들은 것 같은데, 이유가 있나?-중요한 일과 빨리 해야 하는 일이 있을 때 어떻게 처리할 것인가?-개성공단 사업 철수에 대해 어떻게 생각하는가?-군대 어디 갔다 왔는가?-영업 관련 경험이 있는가?-영업 직무란 무엇인가?-왜 패션영업을 선택했는가?-자기소개서에 기재한 자격증에 대해 설명해보시오.-자기소개해보시오.-주량이 어느 정도인가?-출신 부대가 어디인가?-취미, 특기가 무엇인가?-회사가 바빠서 야근을 자주해야 되는데, 여자친구가 계속 만나자고 보챈다. 어떻게 대처할 것인가?-남들과 차별화된 강점이 무엇인가?-전공과 다른 분야인데, 왜 이 직무를 선택했는가?-본인이 지원한 직무에 업무바운더리는 어디까지라고 생각합니까?-마지막으로 하고 싶은 말은 무엇입니까?-성격의 장단점은 무엇입니까?-영업이라는 직무에 대한 생각에 대해 설명해보시오.-영어로 자기소개 해보시오.-좋아하는 과목과 싫어하는 과목은 무엇이고, 그이유를 말해보세요.-본인이 인턴기간 중 수행한 구체적인 직무와 역활은 무엇인가?-기존 지원했던 회사에서 불합격한 이유는 무엇이라고 생각하는가?-본인이 생각하는 패션이란?-업무를 하고 있는데, 다른 직무로 발령을 낸다면 어떻게 하겠는가-우리 회사에 대해서 아는 대로 말해봐라-지원한 직무가 어떤 일을 하는 직무일 것 같나?-회사 생활을 언제까지 하고 싶나요?</t>
+    <t>종교가 무교로 되어 있는데, 우리 회사는 기독교 회사이다. 문제 없겠나?(성적증명서를 보며) 회계 수업을 많이 안 들은 것 같은데, 이유가 있나?중요한 일과 빨리 해야 하는 일이 있을 때 어떻게 처리할 것인가?개성공단 사업 철수에 대해 어떻게 생각하는가?군대 어디 갔다 왔는가?영업 관련 경험이 있는가?영업 직무란 무엇인가?왜 패션영업을 선택했는가?자기소개서에 기재한 자격증에 대해 설명해보시오.자기소개해보시오.주량이 어느 정도인가?출신 부대가 어디인가?취미, 특기가 무엇인가?회사가 바빠서 야근을 자주해야 되는데, 여자친구가 계속 만나자고 보챈다. 어떻게 대처할 것인가?남들과 차별화된 강점이 무엇인가?전공과 다른 분야인데, 왜 이 직무를 선택했는가?본인이 지원한 직무에 업무바운더리는 어디까지라고 생각합니까?마지막으로 하고 싶은 말은 무엇입니까?성격의 장단점은 무엇입니까?영업이라는 직무에 대한 생각에 대해 설명해보시오.영어로 자기소개 해보시오.좋아하는 과목과 싫어하는 과목은 무엇이고, 그이유를 말해보세요.본인이 인턴기간 중 수행한 구체적인 직무와 역활은 무엇인가?기존 지원했던 회사에서 불합격한 이유는 무엇이라고 생각하는가?본인이 생각하는 패션이란?업무를 하고 있는데, 다른 직무로 발령을 낸다면 어떻게 하겠는가우리 회사에 대해서 아는 대로 말해봐라지원한 직무가 어떤 일을 하는 직무일 것 같나?회사 생활을 언제까지 하고 싶나요?</t>
+  </si>
+  <si>
+    <t>3월 24일 오전 10시에, 공덕에 있는 신원빌딩 본사에서 진행되었습니다.면접관은 4명이었고, 면접자는 4명이었으나 한 명 불참하여 3명이서 진행되었습니다.다대다 형태로 진행되었으며, 인성 및 역량 면접이었습니다.면접관 네명과 면접자 세명(불참1명)이 다대대로 진행되었습니다. 공통적으로 자기소개를 진행한 후, 각자 이력사항에 대해서 개별질문을 진행했습니다. 특별히 어렵거나 까다로운 질문은 없었습니다.경영혁신팀장, 인사팀장, 회계쪽 부서 분들 이렇게 4명이 있었는데, 지원자들이 전체적으로 회계 쪽으로 경험이 많이 없다보니 답변을 들으면서 회계쪽 분들은 탐탁지 않은 표정을 보이셨습니다.화기애애하지도 않고, 너무 무겁지도 않은 그냥 평범한 분위기였습니다. 중반부까지는 면접관들이 계속 질문을 하셨고, 마지막에는 옆에 배석하고 있던 인사팀 직원분이 질문을 하시다가 나중에는 다시 면접관 분들이 질문을 하셨습니다.종교에 대한 부분의 질문이 나올 것 같아서, 그에 대한 답변을 준비해서 갔음에도 불구하고 계속 그부분으로 질문을 받았습니다. 그 질문이 당락에 어느정도 영향이 있는지는 모르지만, 종교분위기에 적응하는 문제를 떠나서 종교를 받아들이겠다는 열린 자세를 요구한게 아닌가 생각이 들었습니다.특별히 어려운 질문은 없으고 회사에 대한 질문도 없었습니다. 평소에 면접준비하듯이 기본질문만 준비하셔도 될 것 같습니다. 저 같은 경우는 종교에 대한 질문을 계속해서 받았습니다. 기독교가 아니신 분들은 이것에 대한 준비를 많이 하셔야할 것 같습니다. 그리고 직무와 관련된 정량적인 스펙이 없으신 경우는 해당 부분에 대해서 강하게 어필할 수 있을만한 것들을 준비해두세요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 종교 무교로 우리 회사 기독교 회사 문제 성적 증명서 회계 수업 안 것 이유 일과 때 처리 것 개성 공단 사업 철수 대해 생각 군대 어디 영업 관련 경험 영업 직무 란 무엇 왜 패션 영업 선택 기재 자격증 대해 설명 자기 소개 주량 정도 출신 부대 어디 취미 특기 무엇 회사 야근 자주 여자친구 계속 대처 것 남 차별 강점 무엇 전공 다른 분야 왜 이 직무 선택 본인 지원 직무 업무 바운더리 어디 생각 합 마지막 말 무엇 입 성격 장단점 무엇 입 영업 직무 대한 생각 대해 설명 영어 자기 소개 과목 과목 무엇 이유 말 본인 인턴 기간 중 수행 구체 직무 역활 무엇 기존 지원 회사 불합격 이유 무엇 생각 본인 생각 패션 업무 다른 직무 발령 우리 회사 대해 대로 말 지원 직무 일 직무 일 것 회사 생활 언제</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오전 공덕 신원 빌딩 본사 진행 면접 관 명 면접 명 명 불참 명 이서 진행 다대 형태 진행 인성 및 역량 면접 면접 관 명과 면접 세명 불참 명 이 다대 진행 공통 자기 소개 진행 후 각자 이력 사항 대해 개별 질문 진행 질문 혁신 팀 인사 팀 회계 쪽 부서 명 원자 전체 회계 쪽 경험 답변 회계 쪽 분 탁 표정 화기 애 애하 지도 그냥 분위기 중반 부 면접 관 계속 질문 마지막 옆 배석 인사 팀 직원 질문 나중 다시 면접 관 분 질문 종교 대한 부분 질문 것 그 대한 답변 준비 불구 계속 부분 질문 그 질문 당락 정도 영향 종교 분위기 문제 종교 자세 구한 생각 질문 회사 대한 질문 평소 면접 준비 듯이 질문 준비 것 저 경우 종교 대한 질문 계속 기독교 분 것 대한 준비 것 직무 관련 정량 스펙 경우 해당 부분 대해 어필 수 것 준비</t>
   </si>
   <si>
     <t>(주)파우컴퍼니</t>
@@ -247,7 +265,7 @@
     <t>55억 4,495만원</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>㈜와이즈유엑스글로벌</t>
@@ -289,7 +307,7 @@
     <t>350억</t>
   </si>
   <si>
-    <t>153</t>
+    <t>163</t>
   </si>
   <si>
     <t>2,821</t>
@@ -395,13 +413,22 @@
 </t>
   </si>
   <si>
-    <t>400</t>
+    <t>409</t>
   </si>
   <si>
     <t>2,412</t>
   </si>
   <si>
-    <t>-자신이 하고 싶은 업무분야는?-자신이 비투비인가 비투씨인가요?-새롭게 도전하고 싶은 분야는?-성격이 급한 편인가요?-회계팀 취업을 하고 싶은데, 인사팀 인턴을 한 이유는 무엇인가요?-남들보다 일찍 출근해서 늦게 퇴근하는것이 보통인데 할 수 있겠는가?-강제 로테이션에 대해 어떻게 생각하는가?-희망연봉과 그 이유를 말하여라.-본인의 부족한 점을 보완하기 위해서 구체적으로 무엇을 하였는가?-해커스 말고 지원한 다른 곳이 어디인가?-그동안 했던 업무들을 말해보세요</t>
+    <t>자신이 하고 싶은 업무분야는?자신이 비투비인가 비투씨인가요?새롭게 도전하고 싶은 분야는?성격이 급한 편인가요?회계팀 취업을 하고 싶은데, 인사팀 인턴을 한 이유는 무엇인가요?남들보다 일찍 출근해서 늦게 퇴근하는것이 보통인데 할 수 있겠는가?강제 로테이션에 대해 어떻게 생각하는가?희망연봉과 그 이유를 말하여라.본인의 부족한 점을 보완하기 위해서 구체적으로 무엇을 하였는가?해커스 말고 지원한 다른 곳이 어디인가?그동안 했던 업무들을 말해보세요</t>
+  </si>
+  <si>
+    <t>강남 해커스 본사에서 오후 2시에 봄지원자는 10명이었고, 면접관은 5명이었음토론면접 + 직무역량 면접 + PT면접제일 처음 토론 면접을 함. 찬성반대 의견을 나뉘어 지원자들끼리 의견을 주고 받음. 그다음 PT면접을 하는데, 개인별로 모두 다른 주제로 발표를 하고 면접관한데 피드백을 받음. 마지막으로 직무역량 면접을 보는데 모두 일열로 쭉 앉아서 면접관과 지원자가 서로 바라보는 구조?로 면접을 봄.면접관은 대체로 무뚝뚝하고 반응이 없으셨습니다. 아무 리액션이 없기 때문에 오히려 긴장이 되었던 것 같습니다.-그리고 너무 냉철한 반응을 보여주시는 것 같아서 무안한 것 같았습니다.딱딱한 분위기였습니다 . 단 한번도 웃어주지 않으시고, 항상 심각한 표정으로 질문을 하셨습니다. 그리고 대체로 5명의 면접관 중에 1분만 계속 질문을 하시고 다른 분들은 그냥 기지개를 피시거나 턱을 괴고 계셔서, 많은 생각을 하게 만드는 면접이 었습니다.분위기는 굉장히 엄숙했다. 면접관 분들이 대체로 나이가 어리신데, 그사람의 잠재력을 보는 질문이 아니라 그냥 꼬리물기식의 질문만 이어져서 아쉬웠습니다. 면접체계가 다소 부족해 보였습니다.면접 당일날 1층에 모여서 동시에 면접장으로 올라가는데, 거기서 모든 짐을 두고 가야하고 물같은거는 올라가서 아예 없기 때문에 대기실에서 많이 마셔두는 것을 추천드립니다. 그리고 3가지 면접을 쉬는 시간 10분정도의 시간만 가지고 계속 이어서 진행하기 때문에 뒤로 갈수록 면접의 집중도가 떨어지실 수 있다고 생각합니다. 뒤로 갈수록 중요한 면접이니 앞에서 너무 모든 전력을 쏟기보다는 골고루 체력분배를 하셔야 할 것 같습니다.강남역에 위치한 해커스어학원 본사에서 10시에 보았습니다.면접관은 대표님을 포함해서 총 4분이 들어왔고, 지원자는 한 팀당 6명 정도였는데, 총 몇 팀이 있었는지는 모르겠습니다.면접관 4명, 지원자 6명의 다대다 면접이었습니다.먼저 돌아가면서 1분 자기소개서를 했습니다. 1분 자기소개서를 경청하시면서 그와 관련된 압박면접이 이어졌기 때문에 1분 자기소개서에서 자신이 경험한 내용에 대해 부풀렸던 지원자분들은 좀 당황을 하셨던 것 같습니다.한 분은 답변 하나하나, 자기소개서 하나하나를 정말 끈질기게 파고드셨습니다. 중간중간에 이건 아니다 싶은 답변에는 옆에 있는 팀장님과 대화를 하면서 지원자를 굉장히 당황스럽게 했습니다.비교적 편안한 분위기에서 진행이 되었습니다. 지원자가 6명이었기 때문에 한바퀴 돌아가는 데 시간이 많이 걸렸고, 그 사이에 긴장이 많이 풀어졌던 것 같습니다. 대표님 표정이 좀 딱딱해서 긴장이 좀 됐지만, 대표님은 마지막에 질문 2가지밖에 하지 않으셨습니다.좀 당당하게 말하지 못했던 것이 아쉬웠습니다. 다른 지원자분들이 스펙이 너무 뛰어나 면접을 보는 동안 조금 주눅들어있었는데, 이로 인해 목소리도 작았고, 좀 떨렸던 것 같습니다. 또 다른 지원자분들은 1분 자기소개서를 바탕으로 한 질문이 굉장히 많이 이어졌는데, 저는 너무 단순한 내용으로 준비를 해가서 관련된 질문을 많이 받지 못했습니다.면접 전에 그 회사의 재무제표를 읽고 최근 3년 간 유동비율과 부채비율, 그리고 영업이익률을 업종 평균과 비교하여 분석을 해가는 것이 좋을 것 같습니다. 실제로 면접에서 회사의 재무제표를 분석한 내용에 대해 설명해보라는 질문을 하는 회사도 있고, 따로 질문을 하지 않더라도 마지막에 하고 싶은 말을 하라는 질문이 주어졌을 때, 이 부분에 대해 언급을 한다면 플러스 요인이 될 수 있을 것 같습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 자신 업무 분야 자신 비투비 비투 도전 분야 성격 편 회계 팀 취업 인사 팀 인턴 이유 무엇 남 일찍 출근 퇴근 보통 수 강제 로테이션 대해 생각 희망 연봉 그 이유 말 본인 점 보완 위해 구체 무엇 해커스 지원 다른 곳 어디 그동안 업무 말</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 강남 해커스 본사 오후 봄 지원 명 면접 관 명 토론 면접 직무 역량 면접 면접 제일 처음 토론 면접 함 찬성 반대 의견 원자 끼리 의견 그다음 면접 개인 별로 모두 다른 주제 발표 면접 관 데 피드백 마지막 직무 역량 면접 모두 열 쭉 면접 관 지원 서로 구조 로 면접 봄 면접 관 대체로 반응 아무 리액션 때문 오히려 긴장 것 반응 것 것 분위기 단 한번 항상 표정 질문 대체로 명의 면접 관 중 계속 질문 다른 분 그냥 기지개 턱 괴고 생각 면접 었습니 분위기 면접 관 분 대체로 나이 데 사람 잠재력 질문 그냥 꼬리 물기 질문 면접 체계 다소 면접 당일 날 층 모 동시 면접 거기 모든 짐 가야 물 아예 때문 대기실 것 추천 가지 면접 시간 시간 가지 계속 진행 때문 뒤 갈수록 면접 집중 도 수 생각 뒤 갈수록 면접 앞 모든 전력 체력 분배 것 강남역 위치 해커스어학원 본사 면접 관 대표 포함 총 지원 팀 명 정도 총 몇 팀 면접 관 명 지원 명의 다대 면접 먼저 경청 그 관련 압박 면접 때문 자신 경험 내용 대해 원자 좀 당황 것 분 답변 하나 하나 자기 소개 하나 하나 정말 중간 중간 이건 답변 옆 팀 장님 대화 지원 당황 비교 분위기 진행 지원 명 때문 바퀴 데 시간 그 사이 긴장 것 대표 표정 좀 긴장 좀 대표 마지막 질문 가지 좀 말 것 다른 원자 스펙 면접 동안 조금 주눅 이로 목소리 좀 것 또 다른 원자 바탕 질문 저 내용 준비 관련 질문 면접 전 그 회사 재무제표 최근 간 유동 비율 부채 비율 영업 이익 률 업종 평균 비교 분석 것 것 실제 면접 회사 재무제표 분석 내용 대해 설명 질문 회사 질문 마지막 말 하라 질문 때 이 부분 대해 언급 플러스 요인 수 것</t>
   </si>
 </sst>
 </file>
@@ -733,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,7 +774,7 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,307 +871,334 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I5" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" t="s">
         <v>49</v>
       </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="P5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" t="s">
         <v>53</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="R5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" t="s">
-        <v>70</v>
-      </c>
-      <c r="W3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="U5" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W5" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y5" t="s">
         <v>79</v>
       </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4" t="s">
-        <v>85</v>
-      </c>
-      <c r="X4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" t="s">
-        <v>102</v>
-      </c>
-      <c r="S5" t="s">
-        <v>103</v>
-      </c>
-      <c r="T5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" t="s">
-        <v>104</v>
-      </c>
-      <c r="V5" t="s">
-        <v>105</v>
-      </c>
-      <c r="W5" t="s">
-        <v>106</v>
-      </c>
-      <c r="X5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>73</v>
-      </c>
       <c r="AA5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AB5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AC5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AD5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AE5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AF5" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -252,7 +252,7 @@
 </t>
   </si>
   <si>
-    <t>16</t>
+    <t>19</t>
   </si>
   <si>
     <t>6,316</t>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="284">
   <si>
     <t>title</t>
   </si>
@@ -941,335 +941,6 @@
   </si>
   <si>
     <t>3,883</t>
-  </si>
-  <si>
-    <t>KAPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2018년 하반기 신규직원 채용</t>
-  </si>
-  <si>
-    <t>/Recruit/GI_Read/25372870?Oem_Code=C1&amp;PageGbn=ST</t>
-  </si>
-  <si>
-    <t>그 외 기타 전기장비 제조업</t>
-  </si>
-  <si>
-    <t>매출액</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>㈜MJ플렉스</t>
-  </si>
-  <si>
-    <t>[MJ플렉스/미디어잡] HR매니저 신입 및 경력사원 채용</t>
-  </si>
-  <si>
-    <t>/Recruit/GI_Read/25469405?Oem_Code=C1&amp;PageGbn=ST</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>269억 4,358만원</t>
-  </si>
-  <si>
-    <t>2,238</t>
-  </si>
-  <si>
-    <t>Atlas Copco Korea㈜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialty Rental 사업부 Coordinator 채용 </t>
-  </si>
-  <si>
-    <t>자동차·조선·기계</t>
-  </si>
-  <si>
-    <t>영업관리·지원·영업기획 외</t>
-  </si>
-  <si>
-    <t>경남</t>
-  </si>
-  <si>
-    <t>/Recruit/GI_Read/25451910?Oem_Code=C1&amp;PageGbn=ST</t>
-  </si>
-  <si>
-    <t>상용 인력 공급 및 인사관리 서비스업</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>외국계(외국 투자기업)_x000D_
-                                        (비상장)</t>
-  </si>
-  <si>
-    <t>1780억</t>
-  </si>
-  <si>
-    <t>5,724</t>
-  </si>
-  <si>
-    <t>Henkel</t>
-  </si>
-  <si>
-    <t>~2018.06.28(목)</t>
-  </si>
-  <si>
-    <t>2018년 Henkel 인턴 모집(기술지원, 부산)</t>
-  </si>
-  <si>
-    <t>화학·에너지·환경</t>
-  </si>
-  <si>
-    <t>설치·정비·A/S</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>/Recruit/GI_Read/25451896?Oem_Code=C1&amp;PageGbn=ST</t>
-  </si>
-  <si>
-    <t>기계·기계설비</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>중견기업_x000D_
-                                        (해외상장법인 자회사)</t>
-  </si>
-  <si>
-    <t>3,658억 2,871만원</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>㈜현대홈쇼핑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전문직(신입) 채용(아동의류,아웃도어 제휴업무外) </t>
-  </si>
-  <si>
-    <t>상품기획·MD</t>
-  </si>
-  <si>
-    <t>/Recruit/GI_Read/25445424?Oem_Code=C1&amp;PageGbn=ST</t>
-  </si>
-  <si>
-    <t>3.61</t>
-  </si>
-  <si>
-    <t>접착제 및 젤라틴 제조업</t>
-  </si>
-  <si>
-    <t>940</t>
-  </si>
-  <si>
-    <t>1조 218억 4,102만원</t>
-  </si>
-  <si>
-    <t>Q1. 성장 환경 및 성격 (500자)Q2. 현대백화점그룹이 지향하는 6 가지 중요한 핵심가치 (열정/자율창의/지속성장/업무혁신/고객지향/상생추구 중 택 1)와 부합하는 업적 또는 경험 (500자)Q3. 지원동기와 지원직무에 적합하다고 생각하는 이유 (500자)Q4. 입사 후 포부 (500자)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _x000D_
-[소통을 통해 배운 경청]_x000D_ 제가 가진 소통 능력은 일찍이 어머니로부터 자연스레 배워온 것 같습니다. 사소한 학교생활에서부터 어렵고 힘든 일에 이르기까지 다양한 주제에 대해서 어머니와 꾸준히 대화를 나눴습니다. _x000D_ 어머니께서는 항상 제 말이 끝날 때까지 묵묵히 제 이야기를 들어주셨습니다. 그리고 이야기가 끝나고 난 뒤에는 항상 저에게 웃음으로 해답을 찾아 주셨습니다._x000D_ 이러한 저는 고객들의 의견을 경청하고, 소통 할 수 있는 현대홈쇼핑의 MD가 되겠습니다.아쉬운점 1  [길 건너편에서 인사하는 아이]_x000D_ ‘공부 못하는 사람 중 톱스타는 많지만, 인사 못 하는 사람은 항상 외톨이다.’ 저희 아버지께 가장 많이 들었던 소리입니다. 시험을 못 쳤다고 꾸중을 받은 적은 없지만 길 건너편 아버지 친구분을 보고도 인사를 하지 않았단 이유로 종일 벌을 서고, 혼이 났습니다._x000D_ 그 후로 저는 아는 사람을 만나게 되면, 그 사람이 저와 또래이든 어른이든 관계없이 항상 먼저 밝고 크게 인사하는 습관이 생겼습니다.좋은점 1 글자수 508자860Byte
-[기부 공연으로 선사한 즐거움과 도움]아쉬운점 1  올해 2월, 친구로부터 자기와 함께 기부 공연을 하자는 요청을 받았습니다. 공연의 주제는 주변 사람들이 살아가는 이야기에 대해서 공감해보자는 것이었습니다. 그리고 공연의 수익금은 홀트아동복지회에 기부한다고 하였습니다. 좋은점 1  그러면서 친구는 저에게 공연의 MC로서 토크쇼의 진행을 해달라고 부탁했습니다. 제가 가진 재능으로 사람들에게 웃음을 주고, 또 어려운 아이들에게 기부를 할 수 있다는 점이 좋았습니다.좋은점 2  그리고 공연 당일, 저는 사람들로부터 받은 사연 중에 하나를 읽은 다음, 관객 한 명을 무대로 모셨습니다. 그리고 사연과 관련해서 관객이 가진 생각에 대한 이야기를 나누었습니다. 그러면서 저는 주어진 시간 동안 많은 관객들과 소통하며 즐거움을 줄 수 있었습니다._x000D_ 이러한 저는 주변 동료들에게 즐거움을 주어 긍정적인 시너지를 발생시킬 수 있으며, 현대홈쇼핑의 상생추구에 도움이 될 수 있는 현대홈쇼핑 사원으로 성장하겠습니다.아쉬운점 2 글자수 494자848Byte
-_x000D_
-[함께하는 홈쇼핑] _x000D_ 현대 사회는 ‘함께’라는 단어보다는 ‘혼자’라는 단어가 당연시되는 것 같습니다. 그러나 현대홈쇼핑에서는 이익의 17%를 주변에 지원하고, 함께 성장하면서 상생을 추구하고 있습니다. _x000D_ 이처럼 홀로가 아닌 함께하는 현대홈쇼핑 안에서 성장해나가면서 더욱 큰 시너지를 창출할 수 있다고 생각하여 지원하게 되었습니다.아쉬운점 1  [같은 듯 다른 시각으로 이룬 혁신]_x000D_ MD에게 새로운 가능성을 발견하고 혁신을 만들 수 있는 시각은 중요하다고 생각됩니다. **도서관 자치위원회로서 도서관 행사를 준비한 적이 있습니다._x000D_ 이전 위원회는 매번 상품을 바꾸면서 행사를 진행했지만, 높은 수익을 내지는 못했습니다. 하지만 저는 상품이 아닌 컨셉의 문제라고 생각하여, 행사의 컨셉을 ‘행복을 선물합시다.’로 정했습니다. 그리고 앞사람이 뒷사람을 위해 물건을 구매해주는 방식으로 칵테일을 판매했습니다._x000D_ 이러한 행복을 선물하는 컨셉은 즐거운 축제와 잘 맞았고, 높은 수익을 낼 수 있었습니다.아쉬운점 2 글자수 504자861Byte
-[온 국민의 쇼핑은 현대홈쇼핑과 함께]_x000D_ 많은 사람들이 즐거운 쇼핑에 있어서는 현대홈쇼핑과 함께 하도록 하겠습니다. 그리하여 온 국민들로부터 사랑받고, 가장 신뢰받는 현대홈쇼핑이 되는데 일조하겠습니다. _x000D_ 우선 입사 후, 가장 기본적인 것을 가장 잘 수행하는 기본이 충실한 사원이 되겠습니다. 협력사와의 소통, 상품의 트렌드 등을 언제나 생각하며 배우겠습니다. 그리하여 선배님들로부터 가장 많은 칭찬을 받는 사원이 되겠습니다._x000D_ 5년 내, 책상이 아닌 현장을 발로 뛰면서 고객들의 니즈를 파악하겠습니다. 그리고 니즈를 만족 시킬 수 있는 상품들을 찾고, 전달 할 수 있는 MD가 되겠습니다. 이러한 기반을 바탕으로 고객들이 먼저 찾고 싶은 현대홈쇼핑이 될 수 있는 발판을 마련하겠습니다._x000D_ 또한 고객, 협력사와 상생할 수 있는 방안을 찾아내어 고객을 행복하게, 세상을 풍요롭게 만드는 현대홈쇼핑이 되는데 앞장서겠습니다. 그로 인해 현대홈쇼핑의 모든 직원들이 자긍심을 가질 수 있도록 힘을 보태겠습니다.아쉬운점 1 글자수 510자872Byte
-</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>5,942</t>
-  </si>
-  <si>
-    <t>TV, 카탈로그, 모바일 중 맡고 싶은 매체와 상품군은 무엇인가?요즘 젊은 사람들은 모바일로 쇼핑을 하고 TV를 잘 보지 않는데, 이 사람들이 나중에 4~50대가 되면 홈쇼핑이 망하지 않겠는가?전형이 길다. 인턴도 있고.. 다른 곳에 최종 합격하면 바로 100프로 입사인데, 다른 데 합격하면 갈 것인가?현직에 아는 사람이 있는가?군복무를 어디서 했나?당신을 채용해야 하는 이유를 말해보시오.본인이 영업MD로서 가지는 강점이 무엇인지 말해보시오.식품 카테고리에 근무하고 싶다고 했는데, 그 이유는 무엇인가?어떤 분야의 MD가 되고 싶으며, 어떤 상품을 맡고 싶은가?원하는 직무 아닌 곳에 배치된다면 어떻게 할 것인가?인생에서 힘들었던 일은?인생에서의 실패 경험과 극복 사례에 대해 말해보시오.MD가 되어 하고픈 일을 구체적으로 말해보시오.MD에 지원하게 된 이유는 무엇인가?NS홈쇼핑 식품 분야에 강세에 있다. 현대홈쇼핑과 NS홈쇼핑을 비교해봐라.10년 후 자신의 모습에 대해 말해보시오.1분 동안 자기소개해보시오.시청한 홈쇼핑 방송 상품 중에 PD로서 방송을 어떻게 바꿔보고 싶은지 말해보시오.인생에서 가장 힘들었던 사건에 대해 말해보시오.일반 PD와 홈쇼핑 PD의 차이는 무엇이라고 생각하는가?현대홈쇼핑의 단점은 무엇이라고 생각하는가?PD의 여러가지 역량 중 가장 중요하다고 생각드는 것은 무엇인가?인사관리자로서 중요하다고 생각하는 것은 무엇인가?경영층이 원하는 교육, 실무자들이 원하는 교육이 무엇이라고 생각하는가?현대홈쇼핑 교육 중에서 아는 것이 있는가?홈쇼핑에 지원한 이유는?관심을 나타낸 직무에서 하고 싶은 제안 같은 게 있다면 무엇이 있는지 말해보시오.리더십 경험이 있는가?마지막으로 하고 싶은 말이 있다면 말해보시오.만원 이내로 사은품을 증정할 시에 어떤 사은품이 좋을지 말해보시오.</t>
-  </si>
-  <si>
-    <t>캠퍼스 리쿠르팅 대상 학교였기 때문에, 학교 내의 스터디룸 같은 곳에서 오전 11시에 보았습니다.면접관 1명; 지원자 2명이었습니다.면접관 1: 지원자 2의 일대다 면접이었습니다. 원래는 1:4였으나 불참자가 있어 2명만 들어가서 면접을 보았습니다.자기소개는 시키지 않았고 처음에는 분위기 환기 상 왜 오전에 왔냐? 회사의 분위기 등에 대해 설명해주셨습니다. 그리고 나서 주로 직무 중심으로 질문을 던졌습니다. 25분이라는 짧은 시간 동안 면접을 보기 때문에 직무 위주, 그리고 자기소개서에 적어놓은 특이사항 위주로 질문을 받았습니다.면접관님이 잘 웃는 타입이셔서, 그냥 준비 많이 해왔다고 웃으시기만 해서 잘 봤다고 생각했는데 결과적으로는 탈락이었습니다.-말을 끊지 않고 끝까지 들으시면서, 중간에 궁금한 부분은 답변이 다 끝나고 질문했습니다.매우 편안해서 이래도 되나 싶을 정도로 편안했습니다. 상반기에 이미 한번 경험한 적 있기 때문에 더 편했던 것 같습니다. 같이 들어간 지원자가 1명 밖에 없어서 비교 대상이 적다는 생각에 더 안심이 된 것 같습니다. 하지만 면접관마다 분위기는 매우 다르니, 마음의 준비는 해야 할 것 같습니다.조금 더 제 경험을 자세하게 어필할 걸 그랬다는 생각이 끝난 후에 많이 들었습니다. 이전의 다른 회사 면접에서 말을 길게 하는 것을 싫어하길래 답변을 너무 짧게 해서 .... 강점인 부분들을 실제 사례를 들어서 증명하는 것이 부족했다는 생각이 들었습니다.-그리고 실제 현직자를 만나 직무에 대한 현장의 목소리를 들었어야 한다는 생각이 면접 후 강하게 들었습니다.준비된 사람을 당연히 좋아합니다. 하지만 그 준비된 사항이 자신의 경험과 연관이 없고 그저 습득한 지식일 뿐이라면 매력도가 떨어지는 것 같습니다. 저도 제 경험과 직무에 대해 준비한 부분의 연결고리를 잘 잡지 못해, 좋은 점수를 얻지 못햇던 것 같습니다.-저는 앞으로 여기 면접을 볼 일은 없겠지만, 앞으로 면접을 보게 되신다면 이러한 나의 경험과 직무의 어떤 부분이 연결될 수 있는지, 그리고 이러한 점을 어떻게 회사에서 활용할 수 있는지 확실하게 준비하시면 합격하시리라 생각합니다. 그리고 가급적이면 오전에 면접을 보시는 것이 좋을 것 같습니다. 오후에는 면접관이 계속 많은 지원자가 비슷한 이야기를 하다 보니, 특출나지 않은 이상 주의깊게 답변을 안 듣는 것 같다는 사람들의 말이 들었습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 카탈로그 모바일 중 매체 상품 무엇 요즘 사람 모바일 쇼핑 를 보지 이 사람 나중 대가 홈쇼핑 전형 인턴 다른 곳 최종 합격 바로 프로 입사 다른 데 합격 것 현직 사람 군복무 당신 채용 이유 말 본인 영업 로서 강점 무엇 말 식품 카테고리 근무 그 이유 무엇 분야 상품 직무 곳 배치 것 인생 일 인생 실패 경험 극복 사례 대해 말 일 구체 말 지원 이유 무엇 홈쇼핑 식품 분야 강세 홈쇼핑 홈쇼핑 비교 후 자신 모습 대해 말 동안 자기 소개 시청 홈쇼핑 방송 상품 중 로서 방송 보고 말 인생 가장 사건 대해 말 일반 홈쇼핑 의 무엇 생각 홈쇼핑 단점 무엇 생각 의 여러가지 역량 중 가장 생각 것 무엇 인사 관리자 로서 생각 것 무엇 층 교육 실무 교육 무엇 생각 현대 홈쇼핑 교육 중 것 홈쇼핑 지원 이유 관심 직무 제안 게 무엇 말 리더십 경험 마지막 말 말 만원 이내 사은 품 증정 시 사은 품 말</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 캠퍼스 리쿠 르팅 대상 학교 때문 학교 내의 스터디 룸 곳 오전 면접 관 명 지원 명 면접 관 지원 의 일대 면접 원래 불참 명 면접 자기 소개 처음 분위기 환기 상 왜 오전 회사 분위기 등 대해 설명 주로 직무 중심 질문 시간 동안 면접 보기 때문 직무 위주 특이 사항 위주 질문 면접 관 타입 셔 그냥 준비 생각 결과 탈락 말 끝 중간 부분 답변 질문 매우 정도 상반기 한번 경험 적 때문 더 것 지원 명 비교 대상 생각 더 안심 것 면접 관 분위기 매우 마음 준비 것 조금 더 제 경험 어필 걸 생각 후 이전 다른 회사 면접 말 것 답변 강점 부분 실제 사례 증명 것 생각 실제 현직 직무 대한 현장 목소리 생각 면접 후 준비 사람 그 준비 사항 자신 경험 연관 습득 지식 일 력도 것 저 제 경험 직무 대해 준비 부분 연결고리 잡지 점수 얻지 못햇던 것 저 앞 여기 면접 볼 일 앞 면접 나 경험 직무 부분 연결 수 점 회사 활용 수 준비 합격 생각 이면 오전 면접 보시 것 것 오후 면접 관 계속 지원 이야기 이상 주의 답변 안 것 사람 말</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 성장 환경 및 성격 자 백화점 그룹 지향 가지 핵심 가치 열정 자율 창의 지속 성장 업무 혁신 고객 지향 상생 추구 중 택 부합 업적 경험 자 지원동 기와 직무 생각 이유 자 입사 후 포부 자</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 소통 통해 경청 제 소통 능력 일찍이 어머니 로부터 온 것 학교생활 일 주제 대해 어머니 대화 어머니 항상 제 말 때 제 이야기 이야기 난 뒤 항상 저 웃음 해답 저 고객 의견 경청 소통 수 홈쇼핑 점 길 건너편 인사 아이 공부 사람 중 톱스타 인사 못 사람 항상 외톨 저희 아버지 가장 소리 시험 못 꾸중 길 건너편 아버지 친구 보고 인사 이유 종일 벌 서고 혼 그 후 저 사람 그 사람 저 또래 어른 항상 먼저 크게 인사 습관 점 글 자수 자 기부 공연 선사 즐거움 도움 점 올해 친구 로부터 자기 기부 공연 하자 요청 공연 주제 주변 사람 이야기 대해 공감 것 공연 수익금 홀트아동복지회 기부 점 친구 저 공연 로서 토크쇼 진행 부탁 제 재능 사람 웃음 또 아이 기부 수 점 점 공연 당일 저 사람 로부터 사연 중 하나 다음 관객 명 무대 사연 관련 관객 생각 대한 이야기 저 시간 동안 관객 소통 즐거움 줄 수 저 주변 동료 즐거움 주어 긍정 시너지 발생 수 홈쇼핑 상생 추구 도움 수 현대 홈쇼핑 사원 점 글 자수 자 홈쇼핑 현대 사회 단어 혼자 단어 시 것 홈쇼핑 이익 를 주변 지원 상생 추구 이처럼 홀로 현대 홈쇼핑 안 더욱 시너지 창 수 생각 지원 점 듯 다른 시각 혁신 가능성 발견 혁신 수 시각 생각 도서관 자치 위원회 로서 도서관 행사 준비 적 이전 위원회 매번 상품 행사 진행 수익 내지 저 상품 컨셉 문제 생각 행사 컨셉 행복 선물 로 정 앞 사람 사람 위해 물건 구매 방식 칵테일 판매 행복 선물 컨셉 축제 수익 낼 수 점 글 자수 자 온 국민 쇼핑 홈쇼핑 사람 쇼핑 홈쇼핑 온 국민 로부터 가장 신뢰 홈쇼핑 일조 우선 입사 후 가장 기본 것 가장 수행 기본 사원 협력 사 소통 상품 트렌드 등 생각 선배 로부터 가장 칭찬 사원 내 책상 현장 발 고객 를 파악 를 만족 수 상품 전달 수 기반 바탕 고객 먼저 홈쇼핑 수 발판 마련 또한 고객 협력 상생 수 방안 고객 세상 풍요롭 홈쇼핑 그로 홈쇼핑 모든 직원 자긍심 수 힘 보태 점 글 자수 자</t>
-  </si>
-  <si>
-    <t>㈜썸텍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의료기기 A/S 기사 (신입/경력직) 모집 </t>
-  </si>
-  <si>
-    <t>제품·서비스영업</t>
-  </si>
-  <si>
-    <t>/Recruit/GI_Read/25431458?Oem_Code=C1&amp;PageGbn=ST</t>
-  </si>
-  <si>
-    <t>기타 통신 판매업</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>3,098</t>
-  </si>
-  <si>
-    <t>㈜엠씨넥스</t>
-  </si>
-  <si>
-    <t>각 부문 신입 및 경력직 채용</t>
-  </si>
-  <si>
-    <t>기계설계·CAD·CAM</t>
-  </si>
-  <si>
-    <t>생산관리·공정관리·품질관리 외</t>
-  </si>
-  <si>
-    <t>서울, 아시아·중동</t>
-  </si>
-  <si>
-    <t>/Recruit/GI_Read/25405141?Oem_Code=C1&amp;PageGbn=ST</t>
-  </si>
-  <si>
-    <t>767</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>Q1. 지원동기Q2. 지원 직무에 필요한 핵심역량은 무엇이며, 역량개발을 위해 어떤 활동과 노력을 하였는지 경험을 중심으로 작성해 주시기 바랍니다.Q3. 입사 후 이루고자 하는 목표</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-이를 위해 저는 다음의 세 가지를 준비하였습니다._x000D_ 첫째, OO 마트에서 인턴사원으로 근무하며 구매관리 실무 경험을 쌓았습니다. 구매 계획 및 실행을 위해 생산계획, 조업 자재 소요 주기, 생산계획과 연계한 구매량 시점의 결정, 발주 및 사후관리 등의 과정을 직접 체험하였습니다. 또한, 생산부서와 지속적인 커뮤니케이션을 통해 입고 및 적정 수준의 재고를 관리했습니다. _x000D_둘째, CPIM, 6시그마 자격을 취득하여 이론적 지식을 쌓음으로써 업무에 신속히 적응할 수 있도록 준비했습니다. _x000D_PSK는 일류 고객사들과 지속적인 공동협력을 통해 첨단 신기술, 가격경쟁력 및 높은 생산성, 최단 납기, 신속하고 유연한 기술 서비스 경쟁력을 바탕으로 신제품 및 해외시장을 확대하고 있습니다. 아쉬운점 1 글자수 384자649Byte
-_x000D_
-제가 지원하는 분야는 구매관리 직무입니다. 구매 및 출하 관리 능력, 자재관리 및 인원/인건비 관리 능력, 생산공정 이해 능력, 계약/협상 능력, 원가관리 능력, 위험 관리 능력, 관련 법규 지식 및 이해능력, 정도경영 관리 능력 등 구매관리 직무를 수행하는 데 필요한 핵심역량은 다양합니다. 저는 이 중 용도에 따라 가장 적정하고 적합한 것을 찾아 구입하는 능력이 가장 중요하다고 생각합니다. 4학년 1학기 기말고사가 끝나고 휴학을 했습니다. 이 기간 동안 OO 마트의 수입 식자재 부서에서 인턴사원으로 근무하였습니다. 3개월간 근무하여 구매의 가치를 분석하고 구매시장을 조사하였습니다. 이를 통해 구매관리능력, 납기에 늦지 않도록 구입하는 납기 관리 능력, 재고를 될 수 있는 대로 최소한도로 하면서 재고 고갈의 위험도를 없애는 적정재고관리 등을 기를 수 있었습니다. 아쉬운점 1  글자수 434자738Byte
-_x000D_
-입사 후 이루고자 하는 목표는 다음과 같습니다._x000D_ 단기 목표 - 업체선정 및 관리, 가격 결정, 부품수급 등의 구매 관리 업무를 경험함으로써 구매와 재무, 원가 등 회계지식을 겸비한 인재로 성장하겠습니다. 또한, 회사의 프로젝트 흐름과 관련 부서의 업무 연계성을 파악하겠습니다._x000D_중기 목표- 시장동향 자료 수집 및 분석, 원자재 구매, 단가 등록, 구매 발주 등의 업무를 진행하며 업무 간 발생하는 문제를 원만히 해결하는 능력 그리고 이를 설득하고 협상하는 능력을 겸비하겠습니다._x000D_장기 목표 - 구매전략 개발, 구매 시스템 운영, 원가관리, 협력업체 진단 및 평가 등의 업무를 수행함으로써 구매전략가의 역할을 다할 것입니다. 또한, 적극적인 글로벌 사업 추진으로 해외 파견근무를 통해 글로벌 역량을 기르겠습니다.아쉬운점 1 글자수 402자682Byte
-</t>
-  </si>
-  <si>
-    <t>3,642</t>
-  </si>
-  <si>
-    <t>왜 우리회사냐?관련 경험이 있는가?중국시장에 대해 어떻게 대처할까?프로젝트를 진행하면서 가장 어려웠던 부분은 어떤 것이었는가?대학 시절 가장 흥미있었던 과목과 가장 어려웠었던 과목은 어떤 것인가?바이패스, 풀업풀다운에 대해 설명해보라.생각했던 것과 다른 일을 하게 될 수도 있는데, 그때는 어떻게 할 것인지?왜 소프트웨어 직무를 선택했는가?</t>
-  </si>
-  <si>
-    <t>오후 3시에 면접을 봤습니다.-본사 구로에서요면접관 2명, 지원자 5명입니다.다대다 면접으로 진행 하였습니다.저를 포함 총 5분의 면접자였고 면접이 시작하기 전 인사팀장님께서 들어오셔서 긴장을 풀어주셨습니다. 깔끔하고 조용하고 분위기가 좋았습니다. 대표이사님께서 직접 계셔서 긴장이 되었지만 면접은 편안했습니다.면접관님들도 정말 편하게 저희들을 대해주셨고, 회사에 대해 친절하게 소개를 해주셨습니다.-또 회사도..무척 활기차고, 생동감 넘치는 느낌이었습니다.-특히 면접관님께서 해주신 말씀이 기억이 납니다.-"비전은 자신이 만들어가는 것이다"-입사후 포부 다 듣고 이말씀 하였는데..-적절한 대답을 못한거 같았습니다회사 전무님이 롤모델이다 이런 사람이 있었는데 몇개의 기사만을 보고 쓴 게 들통이 나서 면접관 분 중 한 분이 굉장히 압박적으로 물어봤어요. 롤모델인데 그것 밖에 모르냐 이런식으로요. 차라리 제대로 조사가 안되면 안쓰는 게 나을거 같아요. 사람이 많아서 좀 튀는 면접 식 답을 하는게 좋을거 같아요. 지금와서야 아쉽네요. 면접 자체는 평이해서 준비를 많이 해가신갈 다 못 보여줄 수 있어요 그러니 좀 더 튀는 대답을 해서 눈길을 사로 잡는 게 중요한거 같아요.다만 너무 솔직하게 말하다 보니 제가 안해도 될 말들을 해서 꼬리에 꼬리를 무는 질문들이 있습니다.-임원분 질문이 평이하나 꼬리를 무는 질문 들어옵니다.-그 점을 잘 대처하시면 좋을듯 합니다. 우선 1시간 30분동안 보아서 지칩니다.-그리고 답변이 한번 꼬여 게속 멘탈 붕괴 와서 대답 잘 못했네요-컨디션 조절도 필요할듯합니다대부분의 원재료를 일본에서 수입하고 있는 상황입니다. 중국 또한 최근 남경 공장 증설, 중국 원재료 업체를 통한 대외구매 등 향후 중국의 중요성도 점차 커지고 있습니다. 일본어, 중국어가 가능하다면 업체와의 직접적인 커뮤니케이션을 통해 업무를 수행할 수 있기 때문에 도움이 될 것입니다.-질문이 꽤나 다양하기 때문에 자신의 어떠한 모습을 보여줄지 많은 고민을 했습니다. 특히 자기소개나 면접에서의 질문에 대해 표면적인 의미가 아니라 어떠한 점을 원하는지 니즈를 파악하려고 노력한 것에 대한 결과가 좋았다고 생각합니다. 추가적으로 사전적 의미의 ‘구매’가 아닌 자신이 생각하는 ‘구매’의 의미를 재정의하는 것도 필요하다고 생각합니다.-구매에 대해 확신한 공부와 개념정리가 필요합니다.-외국어 역량도 중요합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 왜 우리 회사 관련 경험 중국 시장 대해 대처 프로젝트 진행 가장 부분 것 대학 시절 가장 흥미 과목 가장 과목 것 바이 패스 풀업풀 다운 대해 설명 생각 것 다른 일 수도 그때 것 왜 소프트웨어 직무 선택</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 오후 면접 본사 구로 요 면접 관 명 지원 명 다대 면접 진행 저 포함 총 면접 면접 시작 전 인사 팀 장님 긴장 분위기 대표이사 직접 긴장 면접 면접 관 정말 저희 대해 회사 대해 소개 또 회사 무척 생동감 면접 관 말씀 기억 자신 것 입사 후 포부 말씀 대답 회사 전무 롤모델 사람 몇개 기사 보고 게 들통 면접 관 분 중 분 압박 롤모델 그것 식 요 차라리 제대로 조사 게 사람 좀 면접 식 답 지금 면접 자체 준비 못 수 좀 더 대답 눈길 사 게 다만 말 제 안해 말 꼬리 꼬리 질문 임원 질문 꼬리 질문 그 점 대처 우선 보아 답변 한번 게속 멘탈 붕괴 대답 컨디션 조절 대부분 재료 일본 수입 상황 중국 또한 최근 남경 공장 증설 중국 재료 업체 통한 대외 구매 등 향후 중국 중요성 점차 일본어 중국어 업체 직접 커뮤니케이션 통해 업무 수행 수 때문 도움 것 질문 꽤 때문 자신 모습 고민 자기 소개 면접 질문 대해 표면 의미 점 를 파악 노력 것 대한 결과 생각 추가 사전 의미 구매 자신 생각 구매 의 의미 재정 것 생각 구매 대해 확신 공부 개념 정리 외국어 역량</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 지원 동기 지원 직무 핵심 역량 무엇 역량 개발 위해 활동 노력 경험 중심 작성 시기 입사 후 목표</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 위해 저 다음 세 가지 준비 첫째 마트 인턴 사원 근무 구매 관리 실무 경험 구매 계획 및 실행 위해 생산 계획 조업 자재 소요 주기 생산 계획 계 구매 량 시점 결정 발주 및 사후관리 등 과정 직접 체험 또한 생산 부서 지속 커뮤니케이션 통해 및 적정 수준 재고 관리 둘째 자격 취득 이론 지식 음 업무 수 준비 일류 고객 사 지속 협력 통해 첨단 기술 가격 경쟁력 및 생산 최단 납기 기술 서비스 경쟁력 바탕 신제품 및 해외 시장 확대 점 글 자수 자 제 지원 분야 구매 관리 직무 구매 및 출하 관리 능력 자재관리 및 인원 인건비 관리 능력 생산 공정 이해 능력 계약 협상 능력 원가 관리 능력 위험 관리 능력 관련 법규 지식 및 이해 능력 정도 경영 관리 능력 등 구매 관리 직무 수행 데 핵심 역량 저 이 중 용도 가장 것 구입 능력 가장 생각 학년 학기 기말고사 휴학 이 기간 동안 마트 수입 식 자재 부서 인턴 사원 근무 개 월간 근무 구매 가치 분석 시장 조사 통해 구매 관리 능력 납기 구입 납기 관리 능력 재고 수 대로 최소한 도로 재고 고갈 위험 적정 재고 관리 등 수 점 글 자수 자 입사 후 목표 다음 단기 목표 업체 선정 및 관리 가격 결정 부품 수급 등 구매 관리 업무 경험 함 구매 재무 원가 등 회계 지식 겸비 인재 또한 회사 프로젝트 흐름 관련 부서 업무 계 파악 중기 목표 시장 동향 자료 수집 및 분석 원자재 구매 단가 등록 구매 발주 등 업무 진행 업무 간 발생 문제 해결 능력 설득 협상 능력 겸비 장기 목표 구매 전략 개발 구매 시스템 운영 원가 관리 협력 업체 진단 및 평가 등 업무 수행 함 구매 전략 가의 역할 것 또한 적극 글로벌 사업 추진 해외 파견 근무 통해 글로벌 역량 점 글 자수 자</t>
-  </si>
-  <si>
-    <t>노보텔앰배서더/강남</t>
-  </si>
-  <si>
-    <t>[노보텔 강남] 객실관리부 사원 모집</t>
-  </si>
-  <si>
-    <t>포장·가공</t>
-  </si>
-  <si>
-    <t>/Recruit/GI_Read/25402536?Oem_Code=C1&amp;PageGbn=ST</t>
-  </si>
-  <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>Lv7</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>6685억</t>
-  </si>
-  <si>
-    <t>Q1. 귀하가 지금까지 살아오면서 부딪혔던 난관을 적극적으로 극복한 실제 경험을 기술하거나, 쉽게 성취하기 어려운 목표달성을 위해 최선의 노력을 했던 실제 경험을 기술하시오. * [100자 이상 600자 이내]Q2. 위 경험의 목표 달성 과정 중 난관 혹은 장애물은 무엇이었으며, 어떤 방법으로 극복했습니까?Q3. 위 경험의 달성 과정 상 혹은 성취결과를 통해 본인이 얻은 것은 무엇입니까?Q4. 자신만의 차별화된 특성 또는 역량(남들과 차별화된 본인의 가장 뛰어난 능력)은 무엇이라 생각하십니까? 혹은 귀하가 지원한 분야를 성공적으로 수행할 수 있다고 생각하는 이유를 서술해 주십시오. (본인의 경험, 강점, 역량 등을 바탕으로 기술) * [100자 이상 600자 이내]Q5. 귀하의 입사지원 지원 동기와 5년 이후의 Career path 상의 목표를 서술해 주십시오. * [100자 이상 600자 이내]Q6. 2지망 부문을 선택한 이유를 구체적으로 서술해 주십시오. * [100자 이상 600자 이내]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _x000D_
-‘긴박했던 사이버 미팅’_x000D_제가 ******** 마닐라 무역관의 인턴사원으로 근무할 당시, 현지 기업과 한국 기업간의 미팅을 중재하는 사이버 미팅을 도운 경험이 있습니다.  당시 ‘Korean Products Showcase 2014’를 성공적으로 마치고 사후 관리의 한 방편으로 시행되었던 이 미팅은 촉박한 시간과, 연말이라는 시기, 불안정한 현지 네트워크 상황이 겹치며 성공 가능성이 무척이나 희박했습니다. _x000D_ 심지어 현지 직원들조차 성공할 수 없다며 회의적인 반응이 대부분이었습니다. 하지만, 더 늦기 전에 사이버 미팅을 중재해야 했고, 이것은 수출의 작은 꿈을 품은 한국 기업에게도 작지만 간과할 수 없는 부분이었습니다. 저는 인턴이지만 작지만 중요한 업우였던 사이버 미팅을 위해 담당 과장님을 지시 아래 제가 할 수 있는 일들을 정리해 나갔고, 다각적으로 문제를 해결할 방법을 찾기 위해 누구보다 적극적이고 능동적으로 업무를 수행했습니다.  _x000D_ 글자수 480자799Byte
-_x000D_
-‘가능성을 위한 끊임없는 노력’_x000D_사이버 미팅을 도우며 만났던 가장 큰 문제는 3가지였습니다. 당시 서류 정리에 많은 시간이 소모되어 미팅까지 1주일밖에 남지 않은 상황이었고, 설상가상으로 필리핀에서 12월이라는 시기는 크리스마스를 위한 달로, 대부분의 회사가 12월은 업무를 거의 하지 않기에 희망 바이어를 찾기가 더욱 어려운 상황이었습니다. _x000D_ 또한, 사이버 미팅이 마닐라가 아닌 세부에서 진행되기에 네트워크 환경이 불안정한 필리핀에서 가본 적 없는 세부에서의 통신 환경 또한 큰 문제였습니다. 촉박한 시간을 아끼기 위해 업무를 나누어 분담하였고, 바이어 발굴은 현지 직원이, 이후 희망 바이어 리스트를 토대로 한 미팅 스케줄 관리와 현지 네트워크 환경 조사, 휴대용 무선 인터넷 기기는 제가 담당하였습니다.  _x000D_ 세부 지역에서 네트워크 환경에 대한 조사 보고서를 과장님께 올리고, 가능할 만한 장소를 물색하여 제안을 드렸습니다. 또한, 현지 통신사를 통해 휴대용 무선 인터넷 기기의 최적화 조언을 얻는 등 적극적으로 정보 수집에 나섰고, 이러한 모든 준비를 통해 사이버 미팅을 성공적으로 마칠 수 있었습니다.                                            글자수 571자978Byte
-_x000D_
-‘불가능이란 포기했을 때이다.’_x000D_사이버 미팅을 마치며 가장 크게 느꼈던 것은 노력에 대한 보상과 불가능은 없다는 것이었습니다. 어려운 상항 속에서도 해결 가능한 방법을 찾아 노력한다면 불가능이란 없으며, 불가능이란 가능을 만드는 방법을 포기했을 때라는 것을 느꼈습니다. _x000D_ 힘들고 포기하고 싶을 때가 누구나 있고, 저도 안 되는 것은 일찍 포기하는 게 낫다라는 생각을 가졌지만 이 경험을 통해 노력으로 불가능을 가능으로 바꿀 수 있음을 깨달았습니다. 처음 사이버 미팅 업무 지원을 전달 받았을 때, 불가능할 것이라는 생각을 했습니다. 하지만, 제가 주도적으로 참여할 수 있는 업무에 오점을 남기고 싶지 않았고 또 불가능하다고 하는 것을 가능으로 만들어 보이고 싶었습니다. _x000D_ 그래서 과장님의 지시사항을 이행하는 한편, 적극적으로 다양한 정보를 수집하여 필요한 부분에 대해 건의했고, 이는 성공이라는 기쁨과 성취감을 안겨준 동시에 관장님으로부터 추천서를 받게 되는 계기가 되었습니다.  이처럼 문제 해결에 대한 끊임없는 노력으로 앰배서더 그룹의 얼굴로서, 고객을 위한 더 나은 서비스 방향에 대해 끊임없이 고민하고 노력하는 사원이 되겠습니다.                                            글자수 587자1,013Byte
-_x000D_
-‘고객을 위하는 작은 날갯짓이 회사의 이익을 가져오다.’_x000D_새로운 환경에서의 뛰어난 적응력과 의사소통 능력이 저의 핵심적인 역량입니다. 초등학교 시절부터 탁월한 대인 관계 능력과 뛰어난 의사소통 능력으로 많은 친구들을 사귀며 원만한 관계를 유지해 온 저는 앰배서더의 직원으로서의 기본적인 능력과 자질을 가진 인재입니다. 또한, 20살 때부터 시작한 많은 아르바이트에서 뛰어난 적응력을 발휘하여 업무를 빠르게 파악하였고, 이는 일을, 빨리 잘 배운다는 말을 듣기에 충분했습니다._x000D_ 서비스 능력 향상 기회였던 9개월 동안의 호텔 서비스 경험은 저에게 고객지향적인 마인드를 심어 주며, 고객 서비스 향상을 위해 다각적으로 노력한 시간이었습니다. 저의 작은 날갯짓이었던 고객 만족을 위한 서비스 응대 매뉴얼 방식에 대한 새로운 시도와 불만 분석 등의 노력은 궁극적으로 호텔의 매출 향상에 기여하였습니다. _x000D_ 이러한 경험을 통해 쌓은 저의 경험과 역량은 앰배서더 호텔에서 주어진 업무를 성실히 수행하며 더 나은 서비스 제공을 위해 부단히 노력하는 모습을 통해 궁극적으로 앰배서더 그룹 전체의 이익에 기여할 수 있는 인재입니다. _x000D_ 글자수 576자994Byte
-_x000D_
-‘Local 브랜드의 신화는 앰배서더입니다.’_x000D_여행을 하며 노곤함을 달래주러 묵었던 호텔에서 만났던 다양한 사람들은 어느 누구보다 친절하고 아름다웠습니다. 숙박이라는 장소의 시작과 끝을 이끄는 곳에서 다양한 고객들을 만나는 모습을 보며 저 또한 그 곳에서 고객에게 처음부터 끝까지 아름다운 이미지로 기억하게 해줄 수 있는 호텔 서비스 직무에 관심을 가지기 시작했습니다. _x000D_ 그 중에서도 순수 국내 자본으로 성장한 호텔전문 기업인 앰배서더는 60년의 전통을 자랑하며 명맥을 견고하게 이어오고 있는 모습이 저의 마음을 사로잡았습니다.  연평균 객실 점유율 96.6%라는 전대미문의 기록을 달성한 노보텔 앰배서더의 개관, 총 17개 호텔 중 16개 호텔의 총지배인이 한국인인만큼 저의 노력과 열정을 이 곳에 더한다면 앰배서더와 함께 성장할 수 있을 것이라는 가능성을 느꼈습니다. _x000D_ 입사 후 뛰어난 업무 적응력을 발휘하여 선배들의 노하우와 업무 프로세스를 스펀지처럼 가감없이 흡수하여 체득하며 ‘아코르 IHMP’, ‘GM 패스 프로그램’을 적극적으로 활용하여 5년 후 대리의 위치에서 노보텔 호텔의 객실 점유율 신화를 다시금 재현해 내는 인재가 될 것입니다.                                            글자수 594자1,013Byte
-_x000D_
-‘해외 인턴 경험을 통해 얻은 경험과 역량’_x000D_판촉마케팅부는 호텔의 매출과 직접적인 연관이 있는 곳이며, 매출 향상을 위해 다각적인 마케팅 방향을 모색하는 부서입니다. 무엇보다 시장과 고객의 수요와 성향을 제대로 파악하고 고객과 소통을 토대로 가장 적절한 방법을 통해 매출 향상을 이끌어내는 곳이기에 제가 필리핀에서 인턴 경험을 하며 익히고 경험했던 시장 분석 역량을 잘 활용할 수 있을 것입니다. _x000D_ 수출 기업에 걸 맞는 잠재적 바이어를 발굴하고 스크린 업무를 하며 고객과의 소통을 통해 미팅을 제안하였고, 현지 시장 조사와 분석을 위해 매 달 정기적으로 현지 전시회에 참관하여 품목별로 시장 동향을 파악하는 등의 경험을 통해 앰배서더의 매출 증대를 위한 기본 자질을 갖추고 업무를 수행할 수 있을 것입니다. _x000D_ 또한, 무역관 내의 무역 사절단을 비롯한 다양한 행사들을 지원하는 한편, 행사 팜플렛이나 자료 제작을 맡아 수행한 경험은 호텔 내의 다양한 행사를 지원하고 조율하는 데 있어서도 발휘될 수 있을 것이라 생각하기에 2지망을 판촉마케팅부서로 지원합니다._x000D_ 글자수 544자936Byte
-</t>
-  </si>
-  <si>
-    <t>2,968</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 귀하 지금 난관 적극 극복 실제 경험 기술 거나 성취 목표 달성 위해 최선 노력 실제 경험 기술 자 이상 자 이내 위 경험 목표 달성 과정 중 난관 장애물 무엇 방법 극복 위 경험 달성 과정 상 취결 통해 본인 것 무엇 입 자신 차별 특성 역량 남 차별 본인 가장 능력 은 무엇 생각 귀하 지원 분야 성공 수행 수 생각 이유 서술 시오 본인 경험 강점 역량 등 바탕 기술 자 이상 자 이내 귀하 입사 지원 지원 동기 이후 상의 목표 서술 시오 자 이상 자 이내 지망 부문 선택 이유 구체 서술 시오 자 이상 자 이내</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사이버 미팅 제 마닐라 무역 관 인턴 사원 근무 당시 현지 기업 한국 기업 미팅 중재 사이버 미팅 도운 경험 당시 를 성공 마치 사후 관리 방편 시행 이 미팅 시간 연말 시기 현지 네트워크 상황 겹치 성공 가능성 무척 심지어 현지 직원 수 회의 반응 대부분 더 전 사이버 미팅 중재 것 수출 꿈 한국 기업 작 간과 수 부분 저 인턴 작 사이버 미팅 위해 담당 과장 지시 아래 제 수 일 정리 다각 문제 해결 방법 찾기 위해 누구 적극 능동 업무 수행 글 자수 자 가능성 위 노력 사이버 미팅 도우 가장 문제 당시 서류 정리 시간 모되 미팅 주일 남지 상황 설상가상 필리핀 시기 크리스마스 위 달 대부분 회사 업무 거의 희망 바이어 찾기 더욱 상황 또한 사이버 미팅 마닐라 세부 진행 네트워크 환경 필리핀 적 세부 통신 환경 또한 문제 시간 위해 업무 분담 바이어 발굴 현지 직원 이후 희망 바이어 리스트 토대 미팅 스케줄 관리 현지 네트워크 환경 조사 휴대 용 무선 인터넷 기기 제 담당 세부 지역 네트워크 환경 대한 조사 보고서 과장 만 장소 물색 제안 또한 현지 통신사 통해 휴대 용 무선 인터넷 기기 최적화 조언 등 적극 정보 수집 모든 준비 통해 사이버 미팅 성공 수 글 자수 자 불가능 포기 때 사이버 미팅 마치 가장 크게 것 노력 대한 보상 불가능 것 상항 속 해결 방법 노력 불가능 불가능 가능 방법 포기 때 것 포기 때 누구 저 안 것 일찍 포기 게 낫다 생각 이 경험 통해 노력 불가능 가능 수 음 깨 처음 사이버 미팅 업무 지원 전달 때 것 생각 제 주도 참여 수 업무 오점 또 것 가능 보이 과장 사항 이행 한편 적극 정보 수집 부분 대해 건의 성공 기쁨 성취 감 준 동시 관장 추천 를 계기 이처럼 문제 해결 대한 노력 앰 배서 더 그룹 얼굴 로서 고객 위 더 나은 서비스 방향 대해 고민 노력 사원 글 자수 자 고객 위 날갯짓 회사 이익 환경 적응력 의사소통 능력 저 핵심 역량 초등학교 시절 대인 관계 능력 의사소통 능력 친구 관계 유지 온 저 앰배서더 직원 기본 능력 자질 인재 또한 살 때 시작 아르바이트 적응력 발휘 업무 파악 일 말 듣기 서비스 능력 향상 기회 개월 동안 호텔 서비스 경험 저 고객 지향 마인드 고객 서비스 향상 위해 다각 노력 시간 저 날갯짓 고객 만족 위 서비스 응대 매뉴얼 방식 대한 시도 불만 분석 등 노력 궁극 호텔 매출 향상 기여 경험 통해 저 경험 역량 앰 배서 더 호텔 업무 수행 더 나은 서비스 제공 위해 노력 모습 통해 궁극 앰 배서 더 그룹 전체 이익 기여 수 인재 글 자수 자 브랜드 신화 앰 배서 더 여행 노곤 함 호텔 사람 누구 숙박 장소 시작 끝 곳 고객 모습 저 또한 그 곳 고객 처음 끝 이미지 기억 수 호텔 서비스 직무 관심 시작 그 중 순수 국내 자본 호텔 전문 기업인 앰배서더 전통 자랑 명맥 모습 저 마음 평균 객실 점유 율 대미 문의 기록 달성 노보텔 앰배서더 개관 총 개 호텔 중 개 호텔 총지배인 한국인 저 노력 열정 이 곳 앰배서더 수 것 가능성 입사 후 업무 적응력 발휘 선배 노하우 업무 프로세스 스펀지 가감 흡수 체득 아코르 패스 프로그램 적극 활용 후 대리 위치 노보텔 호텔 객실 점유 율 신화 다시금 재현 인재 것 글 자수 자 해외 인턴 경험 통해 경험 역량 판촉 마케팅 호텔 매출 직접 연관 곳 매출 향상 위해 다각 마케팅 방향 모색 부서 무엇 시장 고객 수요 성향 제대로 파악 고객 소통 토대 가장 방법 통해 매출 향상 곳 이기 제 필리핀 인턴 경험 경험 시장 분석 역량 활용 수 것 수출 기업 걸 잠재 바이어 발굴 스크린 업무 고객 소통 통해 미팅 제안 현지 시장 조사 분석 위해 매 달 정기 현지 전시회 참관 품목 별로 시장 동향 파악 등 경험 통해 앰배서더 매출 증대 위 기본 자질 업무 수행 수 것 또한 무역 관 내의 무역 사절단 비롯 행사 지원 한편 행사 팜플렛 자료 제작 수행 경험 호텔 내의 행사 지원 조율 데 발휘 수 것 생각 지망 판촉 마케팅 부서 지원 글 자수 자</t>
-  </si>
-  <si>
-    <t>[노보텔 강남] 식음료부 신입/경력 모집</t>
-  </si>
-  <si>
-    <t>/Recruit/GI_Read/25402399?Oem_Code=C1&amp;PageGbn=ST</t>
-  </si>
-  <si>
-    <t>전기·전자·제어</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>305억 8,824만원</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2736,7 +2407,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>276</v>
       </c>
@@ -2784,603 +2455,6 @@
       </c>
       <c r="AE17" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37">
-      <c r="A18" t="s">
-        <v>284</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>285</v>
-      </c>
-      <c r="D18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" t="s">
-        <v>286</v>
-      </c>
-      <c r="V18" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37">
-      <c r="A19" t="s">
-        <v>290</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" t="s">
-        <v>292</v>
-      </c>
-      <c r="W19" t="s">
-        <v>293</v>
-      </c>
-      <c r="X19" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>295</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37">
-      <c r="A20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D20" t="s">
-        <v>299</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" t="s">
-        <v>301</v>
-      </c>
-      <c r="L20" t="s">
-        <v>302</v>
-      </c>
-      <c r="V20" t="s">
-        <v>303</v>
-      </c>
-      <c r="W20" t="s">
-        <v>304</v>
-      </c>
-      <c r="X20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="A21" t="s">
-        <v>308</v>
-      </c>
-      <c r="B21" t="s">
-        <v>309</v>
-      </c>
-      <c r="C21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D21" t="s">
-        <v>311</v>
-      </c>
-      <c r="E21" t="s">
-        <v>312</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" t="s">
-        <v>313</v>
-      </c>
-      <c r="L21" t="s">
-        <v>314</v>
-      </c>
-      <c r="V21" t="s">
-        <v>315</v>
-      </c>
-      <c r="W21" t="s">
-        <v>316</v>
-      </c>
-      <c r="X21" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37">
-      <c r="A22" t="s">
-        <v>321</v>
-      </c>
-      <c r="B22" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D22" t="s">
-        <v>323</v>
-      </c>
-      <c r="G22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" t="s">
-        <v>324</v>
-      </c>
-      <c r="M22" t="s">
-        <v>325</v>
-      </c>
-      <c r="N22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>213</v>
-      </c>
-      <c r="R22" t="s">
-        <v>112</v>
-      </c>
-      <c r="S22" t="s">
-        <v>213</v>
-      </c>
-      <c r="T22" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" t="s">
-        <v>214</v>
-      </c>
-      <c r="V22" t="s">
-        <v>326</v>
-      </c>
-      <c r="W22" t="s">
-        <v>327</v>
-      </c>
-      <c r="X22" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>332</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>333</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>335</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>336</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>337</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37">
-      <c r="A23" t="s">
-        <v>339</v>
-      </c>
-      <c r="B23" t="s">
-        <v>309</v>
-      </c>
-      <c r="C23" t="s">
-        <v>340</v>
-      </c>
-      <c r="D23" t="s">
-        <v>341</v>
-      </c>
-      <c r="E23" t="s">
-        <v>312</v>
-      </c>
-      <c r="H23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" t="s">
-        <v>342</v>
-      </c>
-      <c r="V23" t="s">
-        <v>343</v>
-      </c>
-      <c r="X23" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
-      <c r="A24" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" t="s">
-        <v>309</v>
-      </c>
-      <c r="C24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D24" t="s">
-        <v>348</v>
-      </c>
-      <c r="E24" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" t="s">
-        <v>349</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" t="s">
-        <v>350</v>
-      </c>
-      <c r="L24" t="s">
-        <v>351</v>
-      </c>
-      <c r="M24" t="s">
-        <v>210</v>
-      </c>
-      <c r="N24" t="s">
-        <v>352</v>
-      </c>
-      <c r="P24" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>113</v>
-      </c>
-      <c r="R24" t="s">
-        <v>353</v>
-      </c>
-      <c r="S24" t="s">
-        <v>113</v>
-      </c>
-      <c r="T24" t="s">
-        <v>354</v>
-      </c>
-      <c r="U24" t="s">
-        <v>354</v>
-      </c>
-      <c r="V24" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>362</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37">
-      <c r="A25" t="s">
-        <v>364</v>
-      </c>
-      <c r="B25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C25" t="s">
-        <v>365</v>
-      </c>
-      <c r="D25" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25" t="s">
-        <v>366</v>
-      </c>
-      <c r="F25" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" t="s">
-        <v>161</v>
-      </c>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" t="s">
-        <v>367</v>
-      </c>
-      <c r="M25" t="s">
-        <v>368</v>
-      </c>
-      <c r="N25" t="s">
-        <v>369</v>
-      </c>
-      <c r="O25" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>52</v>
-      </c>
-      <c r="R25" t="s">
-        <v>354</v>
-      </c>
-      <c r="S25" t="s">
-        <v>113</v>
-      </c>
-      <c r="T25" t="s">
-        <v>371</v>
-      </c>
-      <c r="U25" t="s">
-        <v>50</v>
-      </c>
-      <c r="W25" t="s">
-        <v>372</v>
-      </c>
-      <c r="X25" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>377</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>378</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37">
-      <c r="A26" t="s">
-        <v>364</v>
-      </c>
-      <c r="B26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C26" t="s">
-        <v>380</v>
-      </c>
-      <c r="D26" t="s">
-        <v>268</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L26" t="s">
-        <v>381</v>
-      </c>
-      <c r="M26" t="s">
-        <v>368</v>
-      </c>
-      <c r="N26" t="s">
-        <v>369</v>
-      </c>
-      <c r="O26" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>52</v>
-      </c>
-      <c r="R26" t="s">
-        <v>354</v>
-      </c>
-      <c r="S26" t="s">
-        <v>113</v>
-      </c>
-      <c r="T26" t="s">
-        <v>371</v>
-      </c>
-      <c r="U26" t="s">
-        <v>50</v>
-      </c>
-      <c r="V26" t="s">
-        <v>382</v>
-      </c>
-      <c r="W26" t="s">
-        <v>383</v>
-      </c>
-      <c r="X26" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>377</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>378</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
